--- a/License-Info-Exchange/SPDX-Lite-sample/SPDXLite-Template.xlsx
+++ b/License-Info-Exchange/SPDX-Lite-sample/SPDXLite-Template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="1230" windowWidth="20925" windowHeight="7965" activeTab="1"/>
+    <workbookView xWindow="4320" yWindow="1230" windowWidth="20925" windowHeight="7965"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="9" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="786">
   <si>
     <t>PackageName</t>
     <phoneticPr fontId="1"/>
@@ -2466,23 +2466,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>SPDXLite-0001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SPDXLite-Template.xlsx</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Creator: Organization:Example co.jp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>SPDX Document Namespace</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>NOASSERTION</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2743,10 +2727,10 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3057,8 +3041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:C32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3070,7 +3054,7 @@
   <sheetData>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3111,9 +3095,7 @@
       <c r="B8" s="22" t="s">
         <v>778</v>
       </c>
-      <c r="C8" s="20" t="s">
-        <v>783</v>
-      </c>
+      <c r="C8" s="20"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="20">
@@ -3122,20 +3104,16 @@
       <c r="B9" s="20" t="s">
         <v>779</v>
       </c>
-      <c r="C9" s="20" t="s">
-        <v>784</v>
-      </c>
+      <c r="C9" s="20"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="20">
         <v>2.5</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>786</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>787</v>
-      </c>
+        <v>783</v>
+      </c>
+      <c r="C10" s="20"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="20">
@@ -3144,9 +3122,7 @@
       <c r="B11" s="20" t="s">
         <v>780</v>
       </c>
-      <c r="C11" s="20" t="s">
-        <v>785</v>
-      </c>
+      <c r="C11" s="20"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="20">
@@ -3155,9 +3131,7 @@
       <c r="B12" s="20" t="s">
         <v>781</v>
       </c>
-      <c r="C12" s="23">
-        <v>43850</v>
-      </c>
+      <c r="C12" s="23"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="24"/>
@@ -3270,7 +3244,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:T1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -3302,7 +3276,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
     </row>
     <row r="3" spans="2:20" s="6" customFormat="1">
@@ -3346,7 +3320,7 @@
       <c r="O3" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="30"/>
+      <c r="P3" s="29"/>
       <c r="Q3" s="27" t="s">
         <v>16</v>
       </c>
@@ -3398,7 +3372,7 @@
       <c r="N4" s="5" t="s">
         <v>770</v>
       </c>
-      <c r="O4" s="29" t="s">
+      <c r="O4" s="30" t="s">
         <v>15</v>
       </c>
       <c r="P4" s="31"/>
